--- a/data/interim/InitialNEPresults.xlsx
+++ b/data/interim/InitialNEPresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/ccd1n18_soton_ac_uk/Documents/PhD/Projects/net_community_production/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{4C725348-6D01-470A-B7A9-9197835838F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F8C101F8-E0DF-4365-94A5-9CBE33E429C4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{4C725348-6D01-470A-B7A9-9197835838F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AF37D21F-4708-4E18-B6E1-C8B0ADABB181}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" activeTab="1" xr2:uid="{E70B4CAD-84D1-4853-BE22-9DE303DC38C0}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="151">
   <si>
     <t>WMO</t>
   </si>
@@ -494,6 +494,105 @@
   <si>
     <t>2.17/1.73</t>
   </si>
+  <si>
+    <t>3.03/2.03</t>
+  </si>
+  <si>
+    <t>1.85/1.59</t>
+  </si>
+  <si>
+    <t>1.30/1.14</t>
+  </si>
+  <si>
+    <t>5.29/4.41</t>
+  </si>
+  <si>
+    <t>3.69/3.03</t>
+  </si>
+  <si>
+    <t>1.68/1.20</t>
+  </si>
+  <si>
+    <t>2.55/1.79</t>
+  </si>
+  <si>
+    <t>3.37/2.04</t>
+  </si>
+  <si>
+    <t>1.66/0.85</t>
+  </si>
+  <si>
+    <t>1.27/0.66</t>
+  </si>
+  <si>
+    <t>1.61/0.65</t>
+  </si>
+  <si>
+    <t>1.78/1.45</t>
+  </si>
+  <si>
+    <t>1.41/1.06</t>
+  </si>
+  <si>
+    <t>2.14/1.72</t>
+  </si>
+  <si>
+    <t>2.33/1.83</t>
+  </si>
+  <si>
+    <t>1.72/1.62</t>
+  </si>
+  <si>
+    <t>1.77/0.15</t>
+  </si>
+  <si>
+    <t>2.61/2.17</t>
+  </si>
+  <si>
+    <t>NEP estimate using max ML depth</t>
+  </si>
+  <si>
+    <t>3.50/2.32</t>
+  </si>
+  <si>
+    <t>3.92/3.18</t>
+  </si>
+  <si>
+    <t>3.33/2.75</t>
+  </si>
+  <si>
+    <t>1.60/1.36</t>
+  </si>
+  <si>
+    <t>2.44/2.11</t>
+  </si>
+  <si>
+    <t>1.56/1.17</t>
+  </si>
+  <si>
+    <t>1.07/0.69</t>
+  </si>
+  <si>
+    <t>3.00/2.73</t>
+  </si>
+  <si>
+    <t>4.22/3.13</t>
+  </si>
+  <si>
+    <t>2.86/1.85</t>
+  </si>
+  <si>
+    <t>3.83/2.30</t>
+  </si>
+  <si>
+    <t>3.60/3.10</t>
+  </si>
+  <si>
+    <t>2.36/1.61</t>
+  </si>
+  <si>
+    <t>1.66/0.77</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -730,6 +829,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -740,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,22 +908,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,33 +926,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,6 +943,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -15051,8 +15199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337F182-20B1-47CC-BCDA-EBFD1DE8BF45}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="17" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15061,28 +15212,28 @@
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="18" max="33" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="AA1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="AA1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
     </row>
     <row r="2" spans="1:33" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15136,244 +15287,260 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:33" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>16</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>5904469</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14">
         <v>5904469</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>9096</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>160</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <v>160</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="I3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="15">
         <v>-62.997999999999998</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <v>25.771000000000001</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="15">
         <v>20141211</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="15">
         <v>20190607</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="15">
         <v>0</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="19" t="s">
+      <c r="P3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="W3" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="18" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>18</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="24">
         <v>5904467</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="C4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="24">
         <v>5904467</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="24">
         <v>7652</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="24">
         <v>161</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="24">
         <v>161</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="34">
+      <c r="I4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="24">
         <v>-60.018999999999998</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="24">
         <v>0.38200000000000001</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="24">
         <v>20141214</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>20190616</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <v>0</v>
       </c>
-      <c r="P4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="23" t="s">
+      <c r="P4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-    </row>
-    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="24">
         <v>5904478</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="24">
         <v>5904478</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="24">
         <v>511</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="24">
         <v>4</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="24">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="24">
         <v>-64.992999999999995</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="24">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="24">
         <v>20141218</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="24">
         <v>20150117</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="24">
         <v>0</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="13" t="s">
+      <c r="P5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -15439,45 +15606,57 @@
       <c r="V6" t="s">
         <v>78</v>
       </c>
+      <c r="AB6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>21</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="25">
         <v>5904472</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="35">
+      <c r="C7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="25">
         <v>5904472</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="25">
         <v>9275</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="26">
         <v>151</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="26">
         <v>151</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="I7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="26">
         <v>-65.147999999999996</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="26">
         <v>-46.115000000000002</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="26">
         <v>20150118</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="26">
         <v>20190412</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -15503,46 +15682,58 @@
       </c>
       <c r="V7" t="s">
         <v>85</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>22</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="25">
         <v>5904468</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="25">
         <v>5904468</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="25">
         <v>9099</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="26">
         <v>188</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="26">
         <v>188</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="36">
+      <c r="I8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="26">
         <v>-64.697999999999993</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="26">
         <v>3.1960000000000002</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="26">
         <v>20150119</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="26">
         <v>20200427</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -15569,142 +15760,175 @@
       <c r="V8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="AB8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="18" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>23</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>5904397</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="17">
         <v>5904397</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <v>9125</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>181</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>181</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17">
         <v>-59.381</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <v>20150122</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="17">
         <v>20200219</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="17">
         <v>0</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="P9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="W9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="22" t="s">
+      <c r="Y9" s="18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="26" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="AB9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="20" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>139</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="19">
         <v>5904847</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="C10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="19">
         <v>5904847</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>689</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>86</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="19">
         <v>86</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="24">
+      <c r="I10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="19">
         <v>-56.802</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="19">
         <v>9.91</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="19">
         <v>20190101</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="19">
         <v>20210430</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="N10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="19">
         <v>1</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="27" t="s">
+      <c r="P10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26" t="s">
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="20" t="s">
         <v>97</v>
+      </c>
+      <c r="AF10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG10" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15759,13 +15983,13 @@
       <c r="Q11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
       <c r="W11" t="s">
         <v>99</v>
       </c>
@@ -15774,40 +15998,40 @@
       <c r="A12" s="10">
         <v>141</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="25">
         <v>5905995</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="C12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="25">
         <v>5905995</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="25">
         <v>11090</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="26">
         <v>83</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="26">
         <v>83</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="36">
+      <c r="I12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="26">
         <v>-67.653000000000006</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="26">
         <v>-21.443000000000001</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="26">
         <v>20190108</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="26">
         <v>20210410</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -15827,46 +16051,52 @@
       </c>
       <c r="X12" t="s">
         <v>80</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>142</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="25">
         <v>5905992</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="C13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="25">
         <v>5905992</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="25">
         <v>12749</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="26">
         <v>82</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="26">
         <v>82</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="36">
+      <c r="I13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="26">
         <v>-63.904000000000003</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="26">
         <v>-26.425000000000001</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="26">
         <v>20190122</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="26">
         <v>20210414</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -15886,46 +16116,52 @@
       </c>
       <c r="X13" t="s">
         <v>104</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>143</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="25">
         <v>5905994</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="C14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="25">
         <v>5905994</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="25">
         <v>12739</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="26">
         <v>82</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="26">
         <v>82</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="I14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="26">
         <v>-64.677999999999997</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="26">
         <v>-31.108000000000001</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="26">
         <v>20190124</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="26">
         <v>20210415</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -15945,46 +16181,52 @@
       </c>
       <c r="X14" t="s">
         <v>105</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>144</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="25">
         <v>5905991</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="C15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="25">
         <v>5905991</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="25">
         <v>12688</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="26">
         <v>84</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="26">
         <v>84</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="I15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="26">
         <v>-56.84</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="26">
         <v>-30.222000000000001</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="26">
         <v>20190128</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="26">
         <v>20210508</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -16005,60 +16247,66 @@
       <c r="X15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="26" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="AF15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>149</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="19">
         <v>5906008</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="C16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="19">
         <v>5906008</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="19">
         <v>12879</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="19">
         <v>12</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="19">
         <v>12</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="19">
         <v>-57.588999999999999</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="19">
         <v>12.231</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="19">
         <v>20190324</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="19">
         <v>20190713</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="19">
         <v>0</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="29" t="s">
+      <c r="P16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="27" t="s">
         <v>109</v>
       </c>
       <c r="S16" s="28"/>
@@ -16067,7 +16315,7 @@
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
-      <c r="Y16" s="31" t="s">
+      <c r="Y16" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16075,40 +16323,40 @@
       <c r="A17" s="10">
         <v>151</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="25">
         <v>5906033</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="C17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="25">
         <v>5906033</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="25">
         <v>12878</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="26">
         <v>74</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="26">
         <v>74</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="I17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="26">
         <v>-66.174999999999997</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="26">
         <v>14.627000000000001</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="26">
         <v>20190419</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="26">
         <v>20210421</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -16129,78 +16377,84 @@
       <c r="X17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" s="22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="AF17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="18" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>152</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>5906034</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="C18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="17">
         <v>5906034</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="17">
         <v>12892</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="17">
         <v>75</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>75</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="I18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="17">
         <v>-63.798000000000002</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="17">
         <v>28.875</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="17">
         <v>20190420</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="17">
         <v>20210502</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="21">
+      <c r="N18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="17">
         <v>1</v>
       </c>
-      <c r="P18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="22" t="s">
+      <c r="P18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y18" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AF18" s="22" t="s">
+      <c r="AF18" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AG18" s="22" t="s">
+      <c r="AG18" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="R16:X16"/>
     <mergeCell ref="R4:Y4"/>
     <mergeCell ref="AA1:AG1"/>
@@ -16208,6 +16462,7 @@
     <mergeCell ref="R5:X5"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="R11:V11"/>
+    <mergeCell ref="W3:AA3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="http://fleetmonitoring.euro-argo.eu/float/5904469" xr:uid="{242DEEE9-0CDE-47CE-94C9-A8F9893E73A7}"/>
@@ -16328,6 +16583,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B01A3837953DAC40B6B04645DB35DA55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74107e009c3ff001f40dc29d90e1ab67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd00fbbc-6285-46ef-980d-16265b20b076" xmlns:ns4="1096272e-9dae-46bb-94ed-8ed644d03108" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ea4e10131a92574f96aaa237f8e260" ns3:_="" ns4:_="">
     <xsd:import namespace="dd00fbbc-6285-46ef-980d-16265b20b076"/>
@@ -16550,15 +16814,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16566,6 +16821,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AFB052-1D25-490F-8866-72B52127753E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E06A48-EA7E-4777-A6A3-8A37E22D68DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16584,27 +16847,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AFB052-1D25-490F-8866-72B52127753E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{187FEF64-36BF-4ABE-A529-4F093A965A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1096272e-9dae-46bb-94ed-8ed644d03108"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dd00fbbc-6285-46ef-980d-16265b20b076"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1096272e-9dae-46bb-94ed-8ed644d03108"/>
-    <ds:schemaRef ds:uri="dd00fbbc-6285-46ef-980d-16265b20b076"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>